--- a/invertebrados/ocorrencias/Validado_Decapoda_consolidado_05abr23.xlsx
+++ b/invertebrados/ocorrencias/Validado_Decapoda_consolidado_05abr23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUSK46CB\OneDrive\2022_Blueprint Araguaia_Jacarandá\Dados\Invertebrados\arquivos magda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Taise\mapasAraguaia\invertebrados\ocorrencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{2AE82B6E-A29F-44FC-BBE0-5CC6EF3685FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6C8EB8A-3293-4E84-B355-196AAC463EAA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0222FEB1-44EC-4B8E-8DAC-2FFD245550A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1033,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1043,7 +1043,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC33"/>
+  <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17:AG27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1470,7 @@
       <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="9" t="s">
         <v>290</v>
       </c>
       <c r="AH1" s="2" t="s">
@@ -3985,10 +3984,6 @@
       <c r="AF31" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="33" spans="32:33" x14ac:dyDescent="0.25">
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF30">

--- a/invertebrados/ocorrencias/Validado_Decapoda_consolidado_05abr23.xlsx
+++ b/invertebrados/ocorrencias/Validado_Decapoda_consolidado_05abr23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Taise\mapasAraguaia\invertebrados\ocorrencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0222FEB1-44EC-4B8E-8DAC-2FFD245550A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41258E34-34C7-492E-8112-19087AAF5345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,9 +890,6 @@
     <t>MMA IN 05/04</t>
   </si>
   <si>
-    <t>BIODIVERSITAS 2002</t>
-  </si>
-  <si>
     <t>ENDEMICA</t>
   </si>
   <si>
@@ -924,13 +921,16 @@
   </si>
   <si>
     <t>sim</t>
+  </si>
+  <si>
+    <t>categoria_iucn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -978,6 +978,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1033,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1044,6 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,6 +1380,8 @@
     <col min="28" max="28" width="34.28515625" customWidth="1"/>
     <col min="32" max="32" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="19" customWidth="1"/>
+    <col min="47" max="47" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1471,7 +1482,7 @@
         <v>31</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>258</v>
@@ -1516,28 +1527,28 @@
         <v>279</v>
       </c>
       <c r="AV1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AW1" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
@@ -1617,7 +1628,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH2" t="s">
         <v>259</v>
@@ -1697,7 +1708,7 @@
         <v>190</v>
       </c>
       <c r="AG3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH3" t="s">
         <v>259</v>
@@ -1780,7 +1791,7 @@
         <v>64</v>
       </c>
       <c r="AG4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH4" t="s">
         <v>259</v>
@@ -1863,7 +1874,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH5" t="s">
         <v>259</v>
@@ -1943,7 +1954,7 @@
         <v>190</v>
       </c>
       <c r="AG6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH6" t="s">
         <v>259</v>
@@ -2023,7 +2034,7 @@
         <v>190</v>
       </c>
       <c r="AG7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH7" t="s">
         <v>259</v>
@@ -2106,7 +2117,7 @@
         <v>51</v>
       </c>
       <c r="AG8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH8" t="s">
         <v>259</v>
@@ -2189,7 +2200,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH9" t="s">
         <v>259</v>
@@ -2281,7 +2292,7 @@
         <v>130</v>
       </c>
       <c r="AG10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH10" t="s">
         <v>259</v>
@@ -2361,7 +2372,7 @@
         <v>190</v>
       </c>
       <c r="AG11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH11" t="s">
         <v>259</v>
@@ -2441,7 +2452,7 @@
         <v>190</v>
       </c>
       <c r="AG12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH12" t="s">
         <v>259</v>
@@ -2524,10 +2535,10 @@
         <v>51</v>
       </c>
       <c r="AU13" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV13" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="AV13" s="8" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
@@ -2701,6 +2712,7 @@
       <c r="AF15" t="s">
         <v>130</v>
       </c>
+      <c r="AY15" s="10"/>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2862,7 +2874,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH17" t="s">
         <v>259</v>
@@ -2942,7 +2954,7 @@
         <v>190</v>
       </c>
       <c r="AG18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH18" t="s">
         <v>259</v>
@@ -3025,7 +3037,7 @@
         <v>51</v>
       </c>
       <c r="AG19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH19" t="s">
         <v>259</v>
@@ -3105,7 +3117,7 @@
         <v>190</v>
       </c>
       <c r="AG20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH20" t="s">
         <v>259</v>
@@ -3185,7 +3197,7 @@
         <v>190</v>
       </c>
       <c r="AG21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH21" t="s">
         <v>259</v>
@@ -3265,7 +3277,7 @@
         <v>190</v>
       </c>
       <c r="AG22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH22" t="s">
         <v>259</v>
@@ -3348,7 +3360,7 @@
         <v>148</v>
       </c>
       <c r="AG23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH23" t="s">
         <v>259</v>
@@ -3431,7 +3443,7 @@
         <v>156</v>
       </c>
       <c r="AG24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH24" t="s">
         <v>259</v>
@@ -3523,7 +3535,7 @@
         <v>165</v>
       </c>
       <c r="AG25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH25" t="s">
         <v>259</v>
@@ -3606,7 +3618,7 @@
         <v>170</v>
       </c>
       <c r="AG26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH26" t="s">
         <v>259</v>
@@ -3689,7 +3701,7 @@
         <v>64</v>
       </c>
       <c r="AG27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH27" t="s">
         <v>259</v>
